--- a/data/cdcFull.xlsx
+++ b/data/cdcFull.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Disk2/github/rakeshsasidharan.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFFD648-2537-344D-BBC7-D4994BF202D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9D5DC2-AF57-F64B-9EFB-2424D4DF24E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="1460" windowWidth="24640" windowHeight="14000" xr2:uid="{17E3E9F6-A75E-3B4B-B869-A00C8C34C29A}"/>
+    <workbookView xWindow="960" yWindow="1460" windowWidth="24640" windowHeight="14000" xr2:uid="{17E3E9F6-A75E-3B4B-B869-A00C8C34C29A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Details" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2268A3E9-8BE8-634B-83C2-DB3CEF73FCE4}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D51" sqref="A1:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,13 +651,13 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="str">
-        <f>VLOOKUP(A2,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C2">
+        <f>IF(AND(D2&lt;=5,D2&gt;=1),"1 to 5",IF(D2=0,"None",D2))</f>
+        <v>22</v>
       </c>
       <c r="D2">
-        <f>IF(VLOOKUP(A2,Details!A:C, 3,FALSE)="1 to 5",1,0)</f>
-        <v>0</v>
+        <f>VLOOKUP(A2,Details!A:C, 3,FALSE)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -668,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(A3,Details!A:B, 2,FALSE)</f>
+        <f t="shared" ref="C3:C51" si="0">IF(AND(D3&lt;=5,D3&gt;=1),"1 to 5",IF(D3=0,"None",D3))</f>
         <v>1 to 5</v>
       </c>
       <c r="D3">
@@ -682,9 +682,9 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(A4,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="D4">
         <f>VLOOKUP(A4,Details!A:C, 3,FALSE)</f>
@@ -698,9 +698,9 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(A5,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="D5">
         <f>VLOOKUP(A5,Details!A:C, 3,FALSE)</f>
@@ -714,9 +714,9 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="str">
-        <f>VLOOKUP(A6,Details!A:B, 2,FALSE)</f>
-        <v>201 to 500</v>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>369</v>
       </c>
       <c r="D6">
         <f>VLOOKUP(A6,Details!A:C, 3,FALSE)</f>
@@ -730,9 +730,9 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(A7,Details!A:B, 2,FALSE)</f>
-        <v>101 to 200</v>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>144</v>
       </c>
       <c r="D7">
         <f>VLOOKUP(A7,Details!A:C, 3,FALSE)</f>
@@ -746,9 +746,9 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(A8,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="D8">
         <f>VLOOKUP(A8,Details!A:C, 3,FALSE)</f>
@@ -762,9 +762,9 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(A9,Details!A:B, 2,FALSE)</f>
-        <v>6 to 10</v>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D9">
         <f>VLOOKUP(A9,Details!A:C, 3,FALSE)</f>
@@ -778,9 +778,9 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="str">
-        <f>VLOOKUP(A10,Details!A:B, 2,FALSE)</f>
-        <v>101 to 200</v>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>136</v>
       </c>
       <c r="D10">
         <f>VLOOKUP(A10,Details!A:C, 3,FALSE)</f>
@@ -794,9 +794,9 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="str">
-        <f>VLOOKUP(A11,Details!A:B, 2,FALSE)</f>
-        <v>101 to 200</v>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>119</v>
       </c>
       <c r="D11">
         <f>VLOOKUP(A11,Details!A:C, 3,FALSE)</f>
@@ -810,9 +810,9 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="str">
-        <f>VLOOKUP(A12,Details!A:B, 2,FALSE)</f>
-        <v>6 to 10</v>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D12">
         <f>VLOOKUP(A12,Details!A:C, 3,FALSE)</f>
@@ -827,7 +827,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(A13,Details!A:B, 2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1 to 5</v>
       </c>
       <c r="D13">
@@ -841,9 +841,9 @@
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="str">
-        <f>VLOOKUP(A14,Details!A:B, 2,FALSE)</f>
-        <v>51 to 100</v>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>93</v>
       </c>
       <c r="D14">
         <f>VLOOKUP(A14,Details!A:C, 3,FALSE)</f>
@@ -857,9 +857,9 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="str">
-        <f>VLOOKUP(A15,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="D15">
         <f>VLOOKUP(A15,Details!A:C, 3,FALSE)</f>
@@ -873,9 +873,9 @@
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="str">
-        <f>VLOOKUP(A16,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="D16">
         <f>VLOOKUP(A16,Details!A:C, 3,FALSE)</f>
@@ -889,9 +889,9 @@
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="str">
-        <f>VLOOKUP(A17,Details!A:B, 2,FALSE)</f>
-        <v>6 to 10</v>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D17">
         <f>VLOOKUP(A17,Details!A:C, 3,FALSE)</f>
@@ -905,9 +905,9 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" t="str">
-        <f>VLOOKUP(A18,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="D18">
         <f>VLOOKUP(A18,Details!A:C, 3,FALSE)</f>
@@ -921,9 +921,9 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="str">
-        <f>VLOOKUP(A19,Details!A:B, 2,FALSE)</f>
-        <v>101 to 200</v>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>101</v>
       </c>
       <c r="D19">
         <f>VLOOKUP(A19,Details!A:C, 3,FALSE)</f>
@@ -937,9 +937,9 @@
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" t="str">
-        <f>VLOOKUP(A20,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="D20">
         <f>VLOOKUP(A20,Details!A:C, 3,FALSE)</f>
@@ -953,9 +953,9 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21" t="str">
-        <f>VLOOKUP(A21,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="D21">
         <f>VLOOKUP(A21,Details!A:C, 3,FALSE)</f>
@@ -969,9 +969,9 @@
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" t="str">
-        <f>VLOOKUP(A22,Details!A:B, 2,FALSE)</f>
-        <v>101 to 200</v>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>164</v>
       </c>
       <c r="D22">
         <f>VLOOKUP(A22,Details!A:C, 3,FALSE)</f>
@@ -985,9 +985,9 @@
       <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" t="str">
-        <f>VLOOKUP(A23,Details!A:B, 2,FALSE)</f>
-        <v>51 to 100</v>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="D23">
         <f>VLOOKUP(A23,Details!A:C, 3,FALSE)</f>
@@ -1001,9 +1001,9 @@
       <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" t="str">
-        <f>VLOOKUP(A24,Details!A:B, 2,FALSE)</f>
-        <v>51 to 100</v>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="D24">
         <f>VLOOKUP(A24,Details!A:C, 3,FALSE)</f>
@@ -1017,9 +1017,9 @@
       <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C25" t="str">
-        <f>VLOOKUP(A25,Details!A:B, 2,FALSE)</f>
-        <v>6 to 10</v>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="D25">
         <f>VLOOKUP(A25,Details!A:C, 3,FALSE)</f>
@@ -1034,7 +1034,7 @@
         <v>18</v>
       </c>
       <c r="C26" t="str">
-        <f>VLOOKUP(A26,Details!A:B, 2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1 to 5</v>
       </c>
       <c r="D26">
@@ -1048,9 +1048,9 @@
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27" t="str">
-        <f>VLOOKUP(A27,Details!A:B, 2,FALSE)</f>
-        <v>6 to 10</v>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D27">
         <f>VLOOKUP(A27,Details!A:C, 3,FALSE)</f>
@@ -1064,9 +1064,9 @@
       <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C28" t="str">
-        <f>VLOOKUP(A28,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="D28">
         <f>VLOOKUP(A28,Details!A:C, 3,FALSE)</f>
@@ -1080,9 +1080,9 @@
       <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="C29" t="str">
-        <f>VLOOKUP(A29,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="D29">
         <f>VLOOKUP(A29,Details!A:C, 3,FALSE)</f>
@@ -1096,9 +1096,9 @@
       <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" t="str">
-        <f>VLOOKUP(A30,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="D30">
         <f>VLOOKUP(A30,Details!A:C, 3,FALSE)</f>
@@ -1112,9 +1112,9 @@
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31" t="str">
-        <f>VLOOKUP(A31,Details!A:B, 2,FALSE)</f>
-        <v>51 to 100</v>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>98</v>
       </c>
       <c r="D31">
         <f>VLOOKUP(A31,Details!A:C, 3,FALSE)</f>
@@ -1128,9 +1128,9 @@
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C32" t="str">
-        <f>VLOOKUP(A32,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="D32">
         <f>VLOOKUP(A32,Details!A:C, 3,FALSE)</f>
@@ -1144,9 +1144,9 @@
       <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="C33" t="str">
-        <f>VLOOKUP(A33,Details!A:B, 2,FALSE)</f>
-        <v>501 to 1000</v>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>669</v>
       </c>
       <c r="D33">
         <f>VLOOKUP(A33,Details!A:C, 3,FALSE)</f>
@@ -1160,9 +1160,9 @@
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34" t="str">
-        <f>VLOOKUP(A34,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="D34">
         <f>VLOOKUP(A34,Details!A:C, 3,FALSE)</f>
@@ -1177,7 +1177,7 @@
         <v>18</v>
       </c>
       <c r="C35" t="str">
-        <f>VLOOKUP(A35,Details!A:B, 2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1 to 5</v>
       </c>
       <c r="D35">
@@ -1191,9 +1191,9 @@
       <c r="B36" t="s">
         <v>18</v>
       </c>
-      <c r="C36" t="str">
-        <f>VLOOKUP(A36,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="D36">
         <f>VLOOKUP(A36,Details!A:C, 3,FALSE)</f>
@@ -1207,9 +1207,9 @@
       <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37" t="str">
-        <f>VLOOKUP(A37,Details!A:B, 2,FALSE)</f>
-        <v>6 to 10</v>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="D37">
         <f>VLOOKUP(A37,Details!A:C, 3,FALSE)</f>
@@ -1223,9 +1223,9 @@
       <c r="B38" t="s">
         <v>5</v>
       </c>
-      <c r="C38" t="str">
-        <f>VLOOKUP(A38,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="D38">
         <f>VLOOKUP(A38,Details!A:C, 3,FALSE)</f>
@@ -1239,9 +1239,9 @@
       <c r="B39" t="s">
         <v>11</v>
       </c>
-      <c r="C39" t="str">
-        <f>VLOOKUP(A39,Details!A:B, 2,FALSE)</f>
-        <v>51 to 100</v>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="D39">
         <f>VLOOKUP(A39,Details!A:C, 3,FALSE)</f>
@@ -1255,9 +1255,9 @@
       <c r="B40" t="s">
         <v>11</v>
       </c>
-      <c r="C40" t="str">
-        <f>VLOOKUP(A40,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="D40">
         <f>VLOOKUP(A40,Details!A:C, 3,FALSE)</f>
@@ -1271,9 +1271,9 @@
       <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="C41" t="str">
-        <f>VLOOKUP(A41,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="D41">
         <f>VLOOKUP(A41,Details!A:C, 3,FALSE)</f>
@@ -1287,9 +1287,9 @@
       <c r="B42" t="s">
         <v>18</v>
       </c>
-      <c r="C42" t="str">
-        <f>VLOOKUP(A42,Details!A:B, 2,FALSE)</f>
-        <v>6 to 10</v>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="D42">
         <f>VLOOKUP(A42,Details!A:C, 3,FALSE)</f>
@@ -1303,9 +1303,9 @@
       <c r="B43" t="s">
         <v>3</v>
       </c>
-      <c r="C43" t="str">
-        <f>VLOOKUP(A43,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="D43">
         <f>VLOOKUP(A43,Details!A:C, 3,FALSE)</f>
@@ -1319,9 +1319,9 @@
       <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C44" t="str">
-        <f>VLOOKUP(A44,Details!A:B, 2,FALSE)</f>
-        <v>51 to 100</v>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>67</v>
       </c>
       <c r="D44">
         <f>VLOOKUP(A44,Details!A:C, 3,FALSE)</f>
@@ -1335,9 +1335,9 @@
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="C45" t="str">
-        <f>VLOOKUP(A45,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="D45">
         <f>VLOOKUP(A45,Details!A:C, 3,FALSE)</f>
@@ -1352,7 +1352,7 @@
         <v>11</v>
       </c>
       <c r="C46" t="str">
-        <f>VLOOKUP(A46,Details!A:B, 2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1 to 5</v>
       </c>
       <c r="D46">
@@ -1366,9 +1366,9 @@
       <c r="B47" t="s">
         <v>3</v>
       </c>
-      <c r="C47" t="str">
-        <f>VLOOKUP(A47,Details!A:B, 2,FALSE)</f>
-        <v>51 to 100</v>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="D47">
         <f>VLOOKUP(A47,Details!A:C, 3,FALSE)</f>
@@ -1382,9 +1382,9 @@
       <c r="B48" t="s">
         <v>5</v>
       </c>
-      <c r="C48" t="str">
-        <f>VLOOKUP(A48,Details!A:B, 2,FALSE)</f>
-        <v>501 to 1000</v>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>708</v>
       </c>
       <c r="D48">
         <f>VLOOKUP(A48,Details!A:C, 3,FALSE)</f>
@@ -1399,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="str">
-        <f>VLOOKUP(A49,Details!A:B, 2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>None</v>
       </c>
       <c r="D49">
@@ -1413,9 +1413,9 @@
       <c r="B50" t="s">
         <v>18</v>
       </c>
-      <c r="C50" t="str">
-        <f>VLOOKUP(A50,Details!A:B, 2,FALSE)</f>
-        <v>11 to 50</v>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="D50">
         <f>VLOOKUP(A50,Details!A:C, 3,FALSE)</f>
@@ -1430,7 +1430,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="str">
-        <f>VLOOKUP(A51,Details!A:B, 2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1 to 5</v>
       </c>
       <c r="D51">
